--- a/Áramköri elemek.xlsx
+++ b/Áramköri elemek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3de4000aead34c13/Dokumentumok/BME Mechatronika/Teljesítményelektronika/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyuli\Documents\Mechatronika\MSc\2. félév\Teljesítményelektronika és villamos hajtások\BLDC_driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{628765F6-D15B-422D-A141-06C78D7B5F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51B1C655-607F-4561-BE6C-6B4FA54670BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E685F68-E9C3-4978-9F45-5E2481DA0BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C941D963-DA7D-4EF2-BAE8-A2C97A3C8D93}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C941D963-DA7D-4EF2-BAE8-A2C97A3C8D93}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -275,15 +275,6 @@
     <t>https://hu.farnell.com/yageo/at0603brd079k1l/res-9k1-0-1-0-1w-thin-film-0603/dp/4047064</t>
   </si>
   <si>
-    <t>RCLAMP3346P.TNT</t>
-  </si>
-  <si>
-    <t>https://hu.farnell.com/semtech/rclamp3346p-tnt/esd-protection-device-3-3v-sgp2708n7/dp/4257357</t>
-  </si>
-  <si>
-    <t>2.7x0.8 mm</t>
-  </si>
-  <si>
     <t>3.3 V operating voltage</t>
   </si>
   <si>
@@ -324,6 +315,15 @@
   </si>
   <si>
     <t>Maradhat a 4.75 kOhm</t>
+  </si>
+  <si>
+    <t>https://hu.mouser.com/ProductDetail/Nexperia/PESD4USB3UTTS-QX?qs=3Rah4i%252BhyCFcdVR8DwXcmg%3D%3D</t>
+  </si>
+  <si>
+    <t>DFN-2510D-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESD4USB3UTTS-QX </t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +382,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -996,7 +1003,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1019,7 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1084,6 +1090,37 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1113,35 +1150,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1482,23 +1490,23 @@
   <dimension ref="A1:J578"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="90.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="90.08984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="6.21875" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1511,16 +1519,16 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="64"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1529,21 +1537,21 @@
       <c r="C2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1552,21 +1560,21 @@
       <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1575,21 +1583,21 @@
       <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1598,19 +1606,19 @@
       <c r="C5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1625,36 +1633,36 @@
       <c r="E6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>53</v>
       </c>
       <c r="I6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="58">
         <f>I7^2/4750</f>
         <v>3.3684210526315791E-3</v>
       </c>
@@ -1668,11 +1676,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <f>B23</f>
         <v>150</v>
       </c>
@@ -1685,17 +1693,17 @@
       <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="59">
         <f>I8^2*150</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="H8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="49">
         <f>20/1000</f>
         <v>0.02</v>
       </c>
@@ -1703,14 +1711,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1719,16 +1727,16 @@
       <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="58" t="str">
+      <c r="B10" s="57" t="str">
         <f>B30</f>
         <v>4.7k</v>
       </c>
@@ -1738,10 +1746,10 @@
       <c r="D10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="58">
         <f>I10^2/4700</f>
         <v>5.3191489361702126E-3</v>
       </c>
@@ -1755,11 +1763,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="58" t="str">
+      <c r="B11" s="57" t="str">
         <f>B31</f>
         <v>9.1k</v>
       </c>
@@ -1769,10 +1777,10 @@
       <c r="D11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="58">
         <f>I11^2/9100</f>
         <v>1.1967032967032966E-3</v>
       </c>
@@ -1786,31 +1794,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1822,969 +1830,936 @@
       <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39" t="s">
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="40">
         <v>782631222</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="F16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="74"/>
       <c r="D17"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
       <c r="D18"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <f>20/1000</f>
         <v>0.02</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>38</v>
       </c>
       <c r="D19"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-    </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="E19" s="62"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="50">
         <v>2</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D20"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="50">
         <v>5</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D21"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="52"/>
       <c r="B22"/>
-      <c r="C22" s="36"/>
+      <c r="C22" s="35"/>
       <c r="D22"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <f>(B21-B20)/B19</f>
         <v>150</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="53" t="s">
         <v>68</v>
       </c>
       <c r="D23"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="52"/>
       <c r="B24"/>
-      <c r="C24" s="36"/>
+      <c r="C24" s="35"/>
       <c r="D24"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
       <c r="D25"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D26"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="52" t="s">
         <v>64</v>
       </c>
       <c r="B27">
         <v>3.3</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D27"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-    </row>
-    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="80"/>
       <c r="D28"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-    </row>
-    <row r="29" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="61" t="s">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:7" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="52"/>
+      <c r="B29" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="62"/>
+      <c r="C29" s="72"/>
       <c r="D29"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="35" t="s">
         <v>68</v>
       </c>
       <c r="D30"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="55" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>68</v>
       </c>
       <c r="D31"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
       <c r="D33"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-    </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="74">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34">
         <v>3.3</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>94</v>
+      <c r="C34" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D34"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-    </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="74">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35">
         <v>0.6</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>94</v>
+      <c r="C35" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D35"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-    </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="74">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
         <f>0.65/1000000000000</f>
         <v>6.5000000000000006E-13</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>91</v>
+      <c r="C36" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="D36"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-    </row>
-    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="75">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="60">
         <f>300/1000000000</f>
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>90</v>
+      <c r="C37" s="35" t="s">
+        <v>87</v>
       </c>
       <c r="D37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="75">
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="60">
         <f>3/1000</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="36" t="s">
-        <v>92</v>
+      <c r="C38" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="D38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="36"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="52"/>
+      <c r="B39"/>
+      <c r="C39" s="35"/>
       <c r="D39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="74">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40">
         <f>(B34-B35)/B38</f>
         <v>899.99999999999989</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="35" t="s">
         <v>68</v>
       </c>
       <c r="D40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="43">
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="42">
         <f>B37/(0.8473*B36)</f>
         <v>544716.70192194195</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="44" t="s">
         <v>68</v>
       </c>
       <c r="D41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79"/>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
       <c r="D42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="F48"/>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="280" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="281" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="282" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="283" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="284" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="285" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="286" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="287" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="288" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="289" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="290" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="291" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="292" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="293" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="294" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="295" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="296" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="297" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="298" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="299" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="300" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="301" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="302" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="303" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="304" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="305" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="306" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="307" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="308" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="309" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="310" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="311" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="312" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="313" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="314" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="315" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="316" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="317" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="318" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="319" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="320" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="321" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="322" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="323" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="324" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="325" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="326" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="327" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="328" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="329" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="330" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="331" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="332" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="333" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="334" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="335" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="336" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="337" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="338" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="339" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="340" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="341" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="342" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="343" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="344" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="345" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="346" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="347" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="348" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="349" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="350" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="351" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="352" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="353" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="354" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="355" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="356" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="357" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="358" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="359" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="360" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="361" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="362" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="363" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="364" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="365" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="366" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="367" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="368" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="369" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="370" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="371" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="372" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="373" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="374" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="375" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="376" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="377" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="378" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="379" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="380" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="381" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="382" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="383" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="384" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="385" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="386" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="387" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="388" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="389" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="390" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="391" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="392" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="393" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="394" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="395" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="396" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="397" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="398" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="399" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="400" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="401" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="402" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="403" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="404" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="405" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="406" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="407" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="408" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="409" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="410" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="411" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="412" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="413" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="414" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="415" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="416" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="417" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="418" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="419" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="420" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="421" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="422" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="423" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="424" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="425" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="426" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="427" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="428" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="429" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="430" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="431" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="432" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="433" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="434" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="435" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="436" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="437" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="438" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="439" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="440" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="441" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="442" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="443" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="444" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="445" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="446" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="447" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="448" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="449" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="450" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="451" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="452" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="453" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="454" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="455" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="456" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="457" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="458" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="459" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="460" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="461" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="462" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="463" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="464" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="465" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="466" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="467" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="468" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="469" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="470" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="471" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="472" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="473" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="474" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="475" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="476" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="477" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="478" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="479" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="480" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="481" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="482" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="483" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="484" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="485" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="486" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="487" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="488" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="489" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="490" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="491" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="492" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="493" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="494" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="495" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="496" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="497" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="498" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="499" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="500" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="501" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="502" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="503" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="504" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="505" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="506" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="507" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="508" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="509" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="510" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="511" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="512" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="513" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="514" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="515" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="516" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="517" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="518" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="519" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="520" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="521" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="522" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="523" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="524" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="525" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="526" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="527" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="528" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="529" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="530" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="531" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="532" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="533" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="534" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="535" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="536" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="537" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="538" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="539" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="540" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="541" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="542" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="543" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="544" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="545" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="546" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="547" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="548" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="549" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="550" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="551" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="552" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="553" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="554" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="555" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="556" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="557" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="558" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="559" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="560" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="561" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="562" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="563" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="564" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="565" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="566" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="567" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="568" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="569" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="570" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="571" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="572" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="573" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="574" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="575" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="576" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="577" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="578" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="411" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="412" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="413" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="414" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="415" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="416" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="417" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="418" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="419" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="420" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="421" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="422" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="423" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="424" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="425" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="426" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="427" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="428" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="429" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="430" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="431" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="432" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="433" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="434" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="435" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="436" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="437" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="438" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="439" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="440" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="441" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="442" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="443" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="444" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="445" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="446" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="447" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="448" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="449" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="450" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="451" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="452" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="453" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="454" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="455" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="456" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="457" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="458" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="459" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="460" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="461" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="462" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="463" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="464" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="465" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="466" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="467" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="468" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="469" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="470" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="471" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="472" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="473" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="474" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="475" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="476" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="477" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="478" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="479" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="480" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="481" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="482" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="483" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="484" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="485" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="486" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="487" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="488" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="489" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="490" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="491" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="492" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="493" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="494" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="495" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="496" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="497" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="498" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="499" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="500" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="501" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="502" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="503" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="504" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="505" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="506" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="507" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="508" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="509" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="510" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="511" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="512" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="513" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="514" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="515" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="516" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="517" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="518" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="519" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="520" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="521" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="522" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="523" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="524" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="525" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="526" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="527" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="528" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="529" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="530" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="531" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="532" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="533" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="534" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="535" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="536" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="537" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="538" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="539" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="540" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="541" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="542" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="543" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="544" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="545" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="546" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="547" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="548" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="549" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="550" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="551" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="552" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="553" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="554" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="555" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="556" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="557" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="558" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="559" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="560" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="561" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="562" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="563" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="564" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="565" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="566" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="567" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="568" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="569" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="570" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="571" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="572" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="573" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="574" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="575" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="576" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="577" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="578" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2796,15 +2771,14 @@
     <hyperlink ref="D14" r:id="rId6" xr:uid="{ABC4B933-81A2-49CA-AB33-83B6FBA547B6}"/>
     <hyperlink ref="D7" r:id="rId7" xr:uid="{578DEFEB-7902-433A-8FE3-458F1B0D5DD8}"/>
     <hyperlink ref="D9" r:id="rId8" xr:uid="{FFB28031-356A-4A42-B312-183864C21486}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{E4FD165E-2624-47D2-A0A6-06747A685479}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{7D408AB7-5E39-4605-8165-6129B08268E2}"/>
-    <hyperlink ref="D8" r:id="rId11" xr:uid="{E18C1D97-785A-4BFB-B430-0FE4F1760AD4}"/>
-    <hyperlink ref="B28" r:id="rId12" xr:uid="{9C0A6639-C871-408D-966C-13E9BA6507AF}"/>
-    <hyperlink ref="D10" r:id="rId13" xr:uid="{D6CEFF03-2ED1-46C2-A65E-B16D7407B581}"/>
-    <hyperlink ref="D11" r:id="rId14" xr:uid="{D5C2F5CE-13AA-469E-A72A-CC72407E23E1}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{7D408AB7-5E39-4605-8165-6129B08268E2}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{E18C1D97-785A-4BFB-B430-0FE4F1760AD4}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{9C0A6639-C871-408D-966C-13E9BA6507AF}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{D6CEFF03-2ED1-46C2-A65E-B16D7407B581}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{D5C2F5CE-13AA-469E-A72A-CC72407E23E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
   <ignoredErrors>
     <ignoredError sqref="F2:F3" numberStoredAsText="1"/>
   </ignoredErrors>
